--- a/src/main/resources/documenttatie/20190506_FuntioneelOntwerp.xlsx
+++ b/src/main/resources/documenttatie/20190506_FuntioneelOntwerp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Brahim\roosterapplicatie\src\main\resources\documenttatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Brahim\0 MijnInzet Backgroundinfo and ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3AF42E-2A2A-49AE-B0B5-5013F4179CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4C4A3-8F60-411F-B192-7DB333E86CC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="869" xr2:uid="{F5639E02-02CA-4E13-82D7-538B2429D207}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ClassDiagram" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Functions and their Rationale'!$A$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Functions and their Rationale'!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="192">
   <si>
     <t>Description</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Scherm met alle niet ingevulde vactures waarvan de dealine dreigt gehaald te worden of behaald is. In dit scherm kun je docenten op een vacature plaatsen obv kennisgebied en beschikbaarheidswensen vd docent.</t>
   </si>
   <si>
-    <t>Bij goedkering van een roost wordt rooster opgeslagen. Dit rooster is vervolgens op te vragen met "toon rooster volgend blok/semester"</t>
-  </si>
-  <si>
     <t>DOCENT</t>
   </si>
   <si>
@@ -498,13 +495,135 @@
   </si>
   <si>
     <t>System</t>
+  </si>
+  <si>
+    <t>Kan verschillende gebruikersrollen toevoegen.</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Voeg GebruikersRol Toe</t>
+  </si>
+  <si>
+    <t>Beheer Onderwijseenheden</t>
+  </si>
+  <si>
+    <t>Onderhoudt het systeem in termen van informatie over onderwijseenheden.
+Het is mogelijk tegelijkertijd voor meerdere schooljaren dit te doen.</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Kennisgebieden docent toevoegen. Deze kunnen alleen door de manager verwijderd worden.</t>
+  </si>
+  <si>
+    <t>Evaluatie DocentBeschikbaarheid</t>
+  </si>
+  <si>
+    <t>Beheer VacatureEscalatie</t>
+  </si>
+  <si>
+    <t>Voeg KennisgebiedDocenten Toe</t>
+  </si>
+  <si>
+    <t>Alle Rollen</t>
+  </si>
+  <si>
+    <t>Het idee is om te zorgen dat het systeem aan te passen is aan eventuele verandering in de toekomst. Hierdoor heb je een flexibel systeem.</t>
+  </si>
+  <si>
+    <t>Hiermee zorg je dat er toezicht blijft op openstaande vacatures, zodat deze niet te lang onvervuld blijven.</t>
+  </si>
+  <si>
+    <t>Manager krijgt hiermee een overizhct van alle beschikbaarheden zodat er een goede balans is tussen gewenste beschikbaarheid en de door docenten uit te voeren (les) taken</t>
+  </si>
+  <si>
+    <t>Hiermee behoud je flexibiliteit in de rooster in gevallen dat het niet kan (zoals bij onverwacht ziekte docent) Zodat je dit tijdig  kan aanpassen.</t>
+  </si>
+  <si>
+    <t>Hiermee kan de administrator onderwijseenheden en lokalen toevoegen. Ook kan een overzicht worden verkregen van de huidige onderwijseenheden</t>
+  </si>
+  <si>
+    <t>Student kan zich inschrijven op een leergmeenschap. De leergemeenshcappen kan/hij selecteren uit eenlijst van beschikbare leergemeenschappen.</t>
+  </si>
+  <si>
+    <t>OPENSTAANDE VRAGEN</t>
+  </si>
+  <si>
+    <t>Wat is de definitie van een  leergemeenschap?</t>
+  </si>
+  <si>
+    <t>Een student kan een aanvraag indienen en de Docent/Begeleider van de student ziet de ingevoerde aanvraag van de student terug in de scherm die de lijst van aanvragen bevat.</t>
+  </si>
+  <si>
+    <t>Scherm met moeglijkheid om de gebruikersrollen toe te voegen. Toegevoegde rollen komen terecht in een overzicht van alle gebruikersrollen</t>
+  </si>
+  <si>
+    <t>Wat is de definitie van een  onderwijseenheid?</t>
+  </si>
+  <si>
+    <t>Scherm met overzicht onderwijseenheden per schooljaar en (indien nodig) de lokalen.
+Nieuwe onderwijseenheden kunnen ook toegvoegd worden.</t>
+  </si>
+  <si>
+    <t>Scherm met overzicht van alle openstaande vacatures</t>
+  </si>
+  <si>
+    <t>Scherm met overzicht van de door docent opgegeven  beschikbaarheid. Het scherm biedt de moeglijkheid beschikbaarheden goed of af te keuren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wat is de definitie van een match? </t>
+  </si>
+  <si>
+    <t>Scherm met vacatures die langer dan X-aantal weken open staan. Scherm biedt ook mogelijkheid om vacatures aan docenten te koppelen</t>
+  </si>
+  <si>
+    <t>wat is de definitie van een kennisgebied?</t>
+  </si>
+  <si>
+    <t>Scherm met mogelijkheid om kennisgebieden per docent  te beheren, te veranderen. Je krijgt in dit scherm ook een overzicht per docent</t>
+  </si>
+  <si>
+    <t>Het idee is om te zorgen dat de kennisgebieden van een docent up to date blijven. Alsmede een overzicht te hebben. Het maakt het inplannen van vacatures/taken makkelijker omdat duidelijk is wie welke vaardigheden bezit.</t>
+  </si>
+  <si>
+    <t>Scherm toont overzicht van alle wijzigingen die een roosteraar niet kan goedkeuren. De manager kan deze wijzigingen goed/afkeuren</t>
+  </si>
+  <si>
+    <t>Welke wijzigingen mag  een roosteraar wel/niet goedkeuren?</t>
+  </si>
+  <si>
+    <t>Wat wordt er bedoelt met taakbezetting?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Wat is een inzetaanvraag? , Is inzetaanvraag hetzelfde als taakbezetting?</t>
+  </si>
+  <si>
+    <t>wat is een onderwijsprogramma? Wat is onderdeel van een onderwijsprogramma (jaar, docent, semester, blok, vakken)?</t>
+  </si>
+  <si>
+    <t>docent uren = contract-fte * 40*80% --&gt; klopt dit?</t>
+  </si>
+  <si>
+    <t>wat wordt er bedoelt met contraints?</t>
+  </si>
+  <si>
+    <t>wat is een onderwijseenheid? Wat wordt hieronder verstaan?</t>
+  </si>
+  <si>
+    <t>Bij goedkering van een rooster wordt rooster opgeslagen. Dit rooster is vervolgens op te vragen met "toon rooster volgend blok/semester"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +665,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -712,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -743,9 +867,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -819,6 +940,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4766,10 +4893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E4BD0D-8AF9-4485-AF6A-CDD20B744446}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B38"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="90.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4782,7 +4909,7 @@
     <col min="6" max="16384" width="90.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4798,10 +4925,13 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -4815,8 +4945,11 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -4832,8 +4965,11 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -4849,8 +4985,11 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -4866,8 +5005,11 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -4881,10 +5023,13 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -4900,8 +5045,11 @@
       <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -4917,8 +5065,11 @@
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -4934,8 +5085,11 @@
       <c r="E9" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -4951,8 +5105,11 @@
       <c r="E10" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -4968,8 +5125,11 @@
       <c r="E11" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -4985,8 +5145,11 @@
       <c r="E12" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -5002,8 +5165,11 @@
       <c r="E13" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -5019,8 +5185,11 @@
       <c r="E14" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -5036,8 +5205,11 @@
       <c r="E15" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="87" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -5053,8 +5225,11 @@
       <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -5070,8 +5245,11 @@
       <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -5087,8 +5265,11 @@
       <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -5104,8 +5285,11 @@
       <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -5121,8 +5305,11 @@
       <c r="E20" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -5138,76 +5325,91 @@
       <c r="E21" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="F21" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="C23" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="D24" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="87" x14ac:dyDescent="0.3">
+      <c r="F25" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="87" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
@@ -5223,8 +5425,11 @@
       <c r="E26" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="87" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="87" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -5240,8 +5445,11 @@
       <c r="E27" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -5257,13 +5465,16 @@
       <c r="E28" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>90</v>
@@ -5272,50 +5483,199 @@
         <v>97</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="D30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="36" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:E31" xr:uid="{6003608C-AE33-44A7-8C89-D628E158D432}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5325,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E8D18D-1ED4-4150-A506-840BEA716E2D}">
   <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5338,7 +5698,7 @@
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -5346,7 +5706,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="P3" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -5525,7 +5885,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
@@ -5534,7 +5894,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
       <c r="N16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="10"/>
@@ -5927,7 +6287,7 @@
     <row r="53" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D54" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -5935,7 +6295,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="8"/>
       <c r="P54" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
@@ -6113,7 +6473,7 @@
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="10"/>
@@ -6123,7 +6483,7 @@
       <c r="I67" s="11"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P67" s="9"/>
       <c r="Q67" s="10"/>
@@ -6890,256 +7250,256 @@
   <dimension ref="A2:T27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="19"/>
-    <col min="3" max="3" width="14.5546875" style="19" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="19"/>
-    <col min="7" max="7" width="19.33203125" style="19" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="19"/>
-    <col min="11" max="11" width="22.88671875" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="2" width="8.88671875" style="18"/>
+    <col min="3" max="3" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="18"/>
+    <col min="7" max="7" width="19.33203125" style="18" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="18"/>
+    <col min="11" max="11" width="22.88671875" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="R3" s="20"/>
-      <c r="S3" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="T3" s="21"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="41"/>
-      <c r="F4" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="42"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E5" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E8" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="24" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="24" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="42"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="E17" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="I17" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="A17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="E17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="I17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="E18" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="I18" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="E18" s="29" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="E19" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="I18" s="29" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="I19" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="E19" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="I19" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="E20" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="I20" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="E20" s="26" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="E21" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="I20" s="38" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="I21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="E22" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="I22" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="E23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="I23" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="E24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="I24" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="E21" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="I21" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="E22" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="I22" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="E23" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="I23" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="E24" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="I24" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/documenttatie/20190506_FuntioneelOntwerp.xlsx
+++ b/src/main/resources/documenttatie/20190506_FuntioneelOntwerp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Brahim\0 MijnInzet Backgroundinfo and ERD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansz\Dropbox\01Hans\00MakeITWork\00Project2RoosterIndeler\20190506noPressure\src\main\resources\documenttatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4C4A3-8F60-411F-B192-7DB333E86CC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED98DB-CD76-4528-A0A6-ADE8F472656F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="869" xr2:uid="{F5639E02-02CA-4E13-82D7-538B2429D207}"/>
   </bookViews>
@@ -4896,7 +4896,10 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="90.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
